--- a/docs/DataSheet RD.xlsx
+++ b/docs/DataSheet RD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -100,67 +100,19 @@
     <t xml:space="preserve">URL Link </t>
   </si>
   <si>
-    <t xml:space="preserve">Neoplasms of the Heart, Pericardium, and Great Vessels</t>
+    <t xml:space="preserve">Primary Cardiac Sarcoma (SEER-17)</t>
   </si>
   <si>
-    <t xml:space="preserve">Text</t>
+    <t xml:space="preserve">Cardiac MRI</t>
   </si>
   <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
-    <t xml:space="preserve">Histopathology dataset and reporting guide for cardiac and pericardial tumors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary cardiac and pericardial tumors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICCR International Dataset Repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text (Pathology Reporting Template)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumor type, grade, margin involvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple pathology centers (international)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICCR (International Collaboration on Cancer Reporting)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICCR consortium data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICCR. Neoplasms of the Heart Dataset, 2022.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iccr-cancer.org/datasets/published-datasets/thorax/heart/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Cardiac Sarcoma (SEER-17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistical / Tabular</t>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Primary cardiac sarcoma data analysis from SEER-17 database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">694</t>
   </si>
   <si>
     <t xml:space="preserve">Primary cardiac sarcoma</t>
@@ -172,13 +124,22 @@
     <t xml:space="preserve">Tabular / Epidemiological</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Age, sex, tumor site, stage, survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">17 cancer registries (SEER)</t>
   </si>
   <si>
     <t xml:space="preserve">SEER (Surveillance, Epidemiology, and End Results Program)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public</t>
   </si>
   <si>
     <t xml:space="preserve">SEER Program, National Cancer Institute</t>
@@ -188,81 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://pmc.ncbi.nlm.nih.gov/articles/PMC4201046/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunnybrook Cardiac Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRI Imaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunnybrook Cardiac MRI Left Ventricle Segmentation Challenge Dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiac structural abnormalities (non-specific, can include tumor cases)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunnybrook Health Sciences Centre, Toronto, Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Already existed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunnybrook Health Sciences Centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiac Atlas Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunnybrook Health Sciences Centre, Cardiac Atlas Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radau et al., Medical Image Analysis, 2009.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cardiacatlas.org/sunnybrook-cardiac-data/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMRxRecon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRI Imaging (k-space)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMRxRecon: k-space cardiac MRI dataset for deep learning reconstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiac MRI (general, includes tumor visualization potential)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple international centers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRI (raw k-space data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various research institutions (international)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature Scientific Data publication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMRxRecon collaboration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhang et al., Nature Scientific Data, 2024.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nature.com/articles/s41597-024-03525-4</t>
   </si>
   <si>
     <t xml:space="preserve">Soft Tissue Sarcoma (TCIA)</t>
@@ -277,9 +163,6 @@
     <t xml:space="preserve">50+ patients</t>
   </si>
   <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soft tissue sarcoma (including cardiac cases)</t>
   </si>
   <si>
@@ -290,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tumor location, histology, treatment status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already existed</t>
   </si>
   <si>
     <t xml:space="preserve">Multiple institutions via TCIA</t>
@@ -306,6 +192,144 @@
   <si>
     <t xml:space="preserve">https://www.cancerimagingarchive.net/collection/soft-tissue-sarcoma/</t>
   </si>
+  <si>
+    <t xml:space="preserve">Genomic Profiling of Cardiac Angiosarcoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic/Genetic data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angiosarcoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-institutional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic, Molecular, Clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic variants, molecular drivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple cancer centers (AACR study)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AACR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic data from cardiac angiosarcoma patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer Research, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aacrjournals.org/clincancerres/article/31/6/1091/753255/Genomic-Profiling-of-Cardiac-Angiosarcoma-Reveals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OncoCardioDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-modal (Molecular + Clinical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OncoCardioVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OncoCardioDB: Integrated Onco-Cardiology Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various cardiac tumors (Angiosarcoma, UPS, LMS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular, Clinical, Histopathology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiac toxicity, tumor type, gene expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitat de València</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Ford Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes cardiac tumor genomic data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OncoCardioDB, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://johnford.uv.es/OncocardioVM/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEER Cardiac Sarcoma Extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical/Epidemiologic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population Data on Primary Cardiac Sarcomas (SEER extract)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All primary cardiac sarcoma subtypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incidence, demographics, survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Cancer Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public registry dataset of primary cardiac malignancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Thoracic Oncology, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://seer.cancer.gov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCDB Primary Cardiac Tumors Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Cancer Database: Cardiac Tumor Cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All primary cardiac malignancies (Angiosarcoma, RMS, UPS, LMS, PCL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment patterns, survival, outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American College of Surgeons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public data for cardiac tumor incidence and management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annals of Thoracic Surgery, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facs.org/quality-programs/cancer/ncdb</t>
+  </si>
 </sst>
 </file>
 
@@ -315,7 +339,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -344,14 +368,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -429,7 +445,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,9 +469,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -470,8 +483,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -482,27 +499,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -531,14 +544,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -608,34 +620,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ996"/>
+  <dimension ref="A1:AQ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="47.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="59.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="59.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="58.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.45"/>
@@ -643,8 +655,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="48.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="44.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="88.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="88.1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -744,517 +756,469 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>30</v>
+      <c r="G2" s="3" t="n">
+        <v>694</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="3" t="n">
+        <v>694</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="L2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="0"/>
       <c r="Z2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>36</v>
+      <c r="M4" s="3" t="s">
+        <v>34</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="N4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>30</v>
+      <c r="P4" s="3" t="n">
+        <v>0</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="0" t="s">
-        <v>52</v>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="T5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-    </row>
-    <row r="5" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="0" t="s">
+      <c r="W5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="X5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" s="0"/>
       <c r="Z5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    </row>
+    <row r="6" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="J6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="K6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="U6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="F7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>89</v>
+      <c r="N7" s="3" t="s">
+        <v>97</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>85</v>
+      <c r="T7" s="3" t="s">
+        <v>98</v>
       </c>
-      <c r="Q6" s="0" t="s">
-        <v>34</v>
+      <c r="U7" s="3" t="s">
+        <v>99</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="V6" s="0" t="s">
+      <c r="V7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W6" s="0" t="s">
-        <v>92</v>
+      <c r="W7" s="3" t="s">
+        <v>100</v>
       </c>
-      <c r="X6" s="0" t="s">
-        <v>93</v>
+      <c r="X7" s="3" t="s">
+        <v>101</v>
       </c>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="3" t="s">
-        <v>94</v>
+      <c r="Z7" s="3" t="s">
+        <v>102</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-    </row>
-    <row r="7" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1278,9 +1242,9 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="X8" s="5"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="6"/>
+      <c r="Z8" s="5"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -1299,7 +1263,7 @@
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
     </row>
-    <row r="9" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="6" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1323,9 +1287,9 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="X9" s="6"/>
+      <c r="X9" s="7"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="6"/>
+      <c r="Z9" s="5"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -1344,7 +1308,7 @@
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
     </row>
-    <row r="10" s="5" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1368,9 +1332,9 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="X10" s="7"/>
+      <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="6"/>
+      <c r="Z10" s="5"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -1389,7 +1353,7 @@
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
     </row>
-    <row r="11" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="6" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1415,7 +1379,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="6"/>
+      <c r="Z11" s="5"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -1434,7 +1398,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
     </row>
-    <row r="12" s="5" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1460,7 +1424,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="6"/>
+      <c r="Z12" s="5"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -1479,7 +1443,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
     </row>
-    <row r="13" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1505,7 +1469,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="6"/>
+      <c r="Z13" s="5"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -1524,7 +1488,7 @@
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
     </row>
-    <row r="14" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1548,9 +1512,9 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="X14" s="5"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="5"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -1569,7 +1533,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
     </row>
-    <row r="15" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1593,9 +1557,9 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="6"/>
+      <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="6"/>
+      <c r="Z15" s="5"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -1614,7 +1578,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
     </row>
-    <row r="16" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1640,7 +1604,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="6"/>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -1659,7 +1623,7 @@
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
     </row>
-    <row r="17" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1685,7 +1649,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="6"/>
+      <c r="Z17" s="5"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -1704,7 +1668,7 @@
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
     </row>
-    <row r="18" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="6" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1730,7 +1694,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="6"/>
+      <c r="Z18" s="8"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -1749,15 +1713,15 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
     </row>
-    <row r="19" s="5" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1775,7 +1739,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="8"/>
+      <c r="Z19" s="5"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -1794,15 +1758,15 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
     </row>
-    <row r="20" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1820,7 +1784,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="6"/>
+      <c r="Z20" s="5"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -1839,7 +1803,7 @@
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
     </row>
-    <row r="21" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1865,7 +1829,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="6"/>
+      <c r="Z21" s="5"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -1884,7 +1848,7 @@
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
     </row>
-    <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1910,7 +1874,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="6"/>
+      <c r="Z22" s="5"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -1929,7 +1893,7 @@
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
     </row>
-    <row r="23" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1955,7 +1919,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="6"/>
+      <c r="Z23" s="5"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -1974,7 +1938,7 @@
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
     </row>
-    <row r="24" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2000,7 +1964,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="6"/>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -2019,7 +1983,7 @@
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
     </row>
-    <row r="25" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2045,7 +2009,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="6"/>
+      <c r="Z25" s="5"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -2064,7 +2028,7 @@
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
     </row>
-    <row r="26" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2090,7 +2054,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="6"/>
+      <c r="Z26" s="5"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -2109,7 +2073,7 @@
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
     </row>
-    <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2135,7 +2099,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="6"/>
+      <c r="Z27" s="5"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -2154,7 +2118,7 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
     </row>
-    <row r="28" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2180,7 +2144,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="6"/>
+      <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -2199,7 +2163,7 @@
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
     </row>
-    <row r="29" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="6" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2223,9 +2187,9 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="X29" s="5"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
+      <c r="Z29" s="5"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -2244,7 +2208,7 @@
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
     </row>
-    <row r="30" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2268,9 +2232,9 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="6"/>
+      <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="6"/>
+      <c r="Z30" s="5"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -2289,7 +2253,7 @@
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
     </row>
-    <row r="31" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="6" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2315,7 +2279,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="6"/>
+      <c r="Z31" s="5"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -2334,7 +2298,7 @@
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
     </row>
-    <row r="32" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2360,7 +2324,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="6"/>
+      <c r="Z32" s="5"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -2379,7 +2343,7 @@
       <c r="AP32" s="4"/>
       <c r="AQ32" s="4"/>
     </row>
-    <row r="33" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2405,7 +2369,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="6"/>
+      <c r="Z33" s="5"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -2424,7 +2388,7 @@
       <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
     </row>
-    <row r="34" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2450,7 +2414,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="6"/>
+      <c r="Z34" s="5"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -2469,7 +2433,7 @@
       <c r="AP34" s="4"/>
       <c r="AQ34" s="4"/>
     </row>
-    <row r="35" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" s="6" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2495,7 +2459,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="6"/>
+      <c r="Z35" s="5"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -2514,7 +2478,7 @@
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
     </row>
-    <row r="36" s="5" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2540,7 +2504,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="6"/>
+      <c r="Z36" s="5"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -2559,7 +2523,7 @@
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
     </row>
-    <row r="37" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2585,7 +2549,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="6"/>
+      <c r="Z37" s="5"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -2604,7 +2568,7 @@
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
     </row>
-    <row r="38" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2630,7 +2594,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="6"/>
+      <c r="Z38" s="5"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -2649,7 +2613,7 @@
       <c r="AP38" s="4"/>
       <c r="AQ38" s="4"/>
     </row>
-    <row r="39" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2673,9 +2637,9 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
+      <c r="X39" s="5"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="6"/>
+      <c r="Z39" s="5"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
@@ -2694,7 +2658,7 @@
       <c r="AP39" s="4"/>
       <c r="AQ39" s="4"/>
     </row>
-    <row r="40" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" s="6" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2718,9 +2682,9 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="X40" s="6"/>
+      <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="6"/>
+      <c r="Z40" s="5"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
@@ -2739,7 +2703,7 @@
       <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
     </row>
-    <row r="41" s="5" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2765,7 +2729,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="6"/>
+      <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
@@ -2784,7 +2748,7 @@
       <c r="AP41" s="4"/>
       <c r="AQ41" s="4"/>
     </row>
-    <row r="42" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2829,7 +2793,7 @@
       <c r="AP42" s="4"/>
       <c r="AQ42" s="4"/>
     </row>
-    <row r="43" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2874,7 +2838,7 @@
       <c r="AP43" s="4"/>
       <c r="AQ43" s="4"/>
     </row>
-    <row r="44" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2919,7 +2883,7 @@
       <c r="AP44" s="4"/>
       <c r="AQ44" s="4"/>
     </row>
-    <row r="45" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2964,7 +2928,7 @@
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
     </row>
-    <row r="46" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3009,7 +2973,7 @@
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
     </row>
-    <row r="47" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3054,15 +3018,15 @@
       <c r="AP47" s="4"/>
       <c r="AQ47" s="4"/>
     </row>
-    <row r="48" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="6" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3080,7 +3044,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
+      <c r="Z48" s="5"/>
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
@@ -3099,15 +3063,15 @@
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
     </row>
-    <row r="49" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3125,7 +3089,7 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
-      <c r="Z49" s="6"/>
+      <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
@@ -3144,7 +3108,7 @@
       <c r="AP49" s="4"/>
       <c r="AQ49" s="4"/>
     </row>
-    <row r="50" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3189,7 +3153,7 @@
       <c r="AP50" s="4"/>
       <c r="AQ50" s="4"/>
     </row>
-    <row r="51" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3215,7 +3179,7 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
+      <c r="Z51" s="5"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
@@ -3234,7 +3198,7 @@
       <c r="AP51" s="4"/>
       <c r="AQ51" s="4"/>
     </row>
-    <row r="52" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3260,7 +3224,7 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
-      <c r="Z52" s="6"/>
+      <c r="Z52" s="5"/>
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
@@ -3279,7 +3243,7 @@
       <c r="AP52" s="4"/>
       <c r="AQ52" s="4"/>
     </row>
-    <row r="53" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3305,7 +3269,7 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
-      <c r="Z53" s="6"/>
+      <c r="Z53" s="5"/>
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
@@ -3324,7 +3288,7 @@
       <c r="AP53" s="4"/>
       <c r="AQ53" s="4"/>
     </row>
-    <row r="54" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3350,7 +3314,7 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
-      <c r="Z54" s="6"/>
+      <c r="Z54" s="5"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
@@ -3369,7 +3333,7 @@
       <c r="AP54" s="4"/>
       <c r="AQ54" s="4"/>
     </row>
-    <row r="55" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3395,7 +3359,7 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
-      <c r="Z55" s="6"/>
+      <c r="Z55" s="5"/>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
@@ -3414,7 +3378,7 @@
       <c r="AP55" s="4"/>
       <c r="AQ55" s="4"/>
     </row>
-    <row r="56" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3440,7 +3404,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
-      <c r="Z56" s="6"/>
+      <c r="Z56" s="5"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
@@ -3459,7 +3423,7 @@
       <c r="AP56" s="4"/>
       <c r="AQ56" s="4"/>
     </row>
-    <row r="57" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3485,7 +3449,7 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
-      <c r="Z57" s="6"/>
+      <c r="Z57" s="5"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
@@ -3504,7 +3468,7 @@
       <c r="AP57" s="4"/>
       <c r="AQ57" s="4"/>
     </row>
-    <row r="58" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3530,7 +3494,7 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
-      <c r="Z58" s="6"/>
+      <c r="Z58" s="5"/>
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
@@ -3549,7 +3513,7 @@
       <c r="AP58" s="4"/>
       <c r="AQ58" s="4"/>
     </row>
-    <row r="59" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3575,7 +3539,7 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
-      <c r="Z59" s="6"/>
+      <c r="Z59" s="5"/>
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
@@ -3594,7 +3558,7 @@
       <c r="AP59" s="4"/>
       <c r="AQ59" s="4"/>
     </row>
-    <row r="60" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3620,7 +3584,7 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
-      <c r="Z60" s="6"/>
+      <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
@@ -3639,7 +3603,7 @@
       <c r="AP60" s="4"/>
       <c r="AQ60" s="4"/>
     </row>
-    <row r="61" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3684,8 +3648,8 @@
       <c r="AP61" s="4"/>
       <c r="AQ61" s="4"/>
     </row>
-    <row r="62" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
+    <row r="62" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -3729,8 +3693,8 @@
       <c r="AP62" s="4"/>
       <c r="AQ62" s="4"/>
     </row>
-    <row r="63" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
+    <row r="63" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3755,7 +3719,7 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
+      <c r="Z63" s="5"/>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
@@ -3774,7 +3738,7 @@
       <c r="AP63" s="4"/>
       <c r="AQ63" s="4"/>
     </row>
-    <row r="64" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3800,7 +3764,7 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
-      <c r="Z64" s="6"/>
+      <c r="Z64" s="5"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
@@ -3819,7 +3783,7 @@
       <c r="AP64" s="4"/>
       <c r="AQ64" s="4"/>
     </row>
-    <row r="65" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3845,7 +3809,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
-      <c r="Z65" s="6"/>
+      <c r="Z65" s="5"/>
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
@@ -3864,7 +3828,7 @@
       <c r="AP65" s="4"/>
       <c r="AQ65" s="4"/>
     </row>
-    <row r="66" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3890,7 +3854,7 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
-      <c r="Z66" s="6"/>
+      <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
@@ -3909,97 +3873,97 @@
       <c r="AP66" s="4"/>
       <c r="AQ66" s="4"/>
     </row>
-    <row r="67" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
-      <c r="AG67" s="4"/>
-      <c r="AH67" s="4"/>
-      <c r="AI67" s="4"/>
-      <c r="AJ67" s="4"/>
-      <c r="AK67" s="4"/>
-      <c r="AL67" s="4"/>
-      <c r="AM67" s="4"/>
-      <c r="AN67" s="4"/>
-      <c r="AO67" s="4"/>
-      <c r="AP67" s="4"/>
-      <c r="AQ67" s="4"/>
-    </row>
-    <row r="68" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="10"/>
-      <c r="AI68" s="10"/>
-      <c r="AJ68" s="10"/>
-      <c r="AK68" s="10"/>
-      <c r="AL68" s="10"/>
-      <c r="AM68" s="10"/>
-      <c r="AN68" s="10"/>
-      <c r="AO68" s="10"/>
-      <c r="AP68" s="10"/>
-      <c r="AQ68" s="10"/>
-    </row>
-    <row r="69" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="10"/>
+      <c r="AQ67" s="10"/>
+    </row>
+    <row r="68" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="4"/>
+      <c r="AM68" s="4"/>
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="4"/>
+      <c r="AP68" s="4"/>
+      <c r="AQ68" s="4"/>
+    </row>
+    <row r="69" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -4023,9 +3987,9 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="X69" s="6"/>
+      <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
-      <c r="Z69" s="6"/>
+      <c r="Z69" s="5"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
@@ -4044,7 +4008,7 @@
       <c r="AP69" s="4"/>
       <c r="AQ69" s="4"/>
     </row>
-    <row r="70" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -4070,7 +4034,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
-      <c r="Z70" s="6"/>
+      <c r="Z70" s="5"/>
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
@@ -4089,7 +4053,7 @@
       <c r="AP70" s="4"/>
       <c r="AQ70" s="4"/>
     </row>
-    <row r="71" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4115,7 +4079,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
-      <c r="Z71" s="6"/>
+      <c r="Z71" s="5"/>
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
@@ -4134,7 +4098,7 @@
       <c r="AP71" s="4"/>
       <c r="AQ71" s="4"/>
     </row>
-    <row r="72" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -4160,7 +4124,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
-      <c r="Z72" s="6"/>
+      <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
@@ -4179,7 +4143,7 @@
       <c r="AP72" s="4"/>
       <c r="AQ72" s="4"/>
     </row>
-    <row r="73" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -4224,7 +4188,7 @@
       <c r="AP73" s="4"/>
       <c r="AQ73" s="4"/>
     </row>
-    <row r="74" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4250,7 +4214,7 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
+      <c r="Z74" s="5"/>
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
@@ -4269,7 +4233,7 @@
       <c r="AP74" s="4"/>
       <c r="AQ74" s="4"/>
     </row>
-    <row r="75" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4295,7 +4259,7 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
-      <c r="Z75" s="6"/>
+      <c r="Z75" s="5"/>
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
@@ -4314,7 +4278,7 @@
       <c r="AP75" s="4"/>
       <c r="AQ75" s="4"/>
     </row>
-    <row r="76" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4340,7 +4304,7 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
-      <c r="Z76" s="6"/>
+      <c r="Z76" s="5"/>
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
@@ -4359,7 +4323,7 @@
       <c r="AP76" s="4"/>
       <c r="AQ76" s="4"/>
     </row>
-    <row r="77" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -4385,7 +4349,7 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
-      <c r="Z77" s="6"/>
+      <c r="Z77" s="5"/>
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
@@ -4404,7 +4368,7 @@
       <c r="AP77" s="4"/>
       <c r="AQ77" s="4"/>
     </row>
-    <row r="78" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -4430,7 +4394,7 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
-      <c r="Z78" s="6"/>
+      <c r="Z78" s="5"/>
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
@@ -4449,7 +4413,7 @@
       <c r="AP78" s="4"/>
       <c r="AQ78" s="4"/>
     </row>
-    <row r="79" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4475,7 +4439,7 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
-      <c r="Z79" s="6"/>
+      <c r="Z79" s="5"/>
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
@@ -4494,7 +4458,7 @@
       <c r="AP79" s="4"/>
       <c r="AQ79" s="4"/>
     </row>
-    <row r="80" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -4520,7 +4484,7 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
-      <c r="Z80" s="6"/>
+      <c r="Z80" s="5"/>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
@@ -4539,7 +4503,7 @@
       <c r="AP80" s="4"/>
       <c r="AQ80" s="4"/>
     </row>
-    <row r="81" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -4565,7 +4529,7 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
-      <c r="Z81" s="6"/>
+      <c r="Z81" s="5"/>
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
@@ -4584,7 +4548,7 @@
       <c r="AP81" s="4"/>
       <c r="AQ81" s="4"/>
     </row>
-    <row r="82" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -4610,7 +4574,7 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
-      <c r="Z82" s="6"/>
+      <c r="Z82" s="5"/>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
@@ -4629,7 +4593,7 @@
       <c r="AP82" s="4"/>
       <c r="AQ82" s="4"/>
     </row>
-    <row r="83" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -4655,7 +4619,7 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
-      <c r="Z83" s="6"/>
+      <c r="Z83" s="5"/>
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
@@ -4674,7 +4638,7 @@
       <c r="AP83" s="4"/>
       <c r="AQ83" s="4"/>
     </row>
-    <row r="84" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4700,7 +4664,7 @@
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
-      <c r="Z84" s="6"/>
+      <c r="Z84" s="5"/>
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
@@ -4719,7 +4683,7 @@
       <c r="AP84" s="4"/>
       <c r="AQ84" s="4"/>
     </row>
-    <row r="85" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4745,7 +4709,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
-      <c r="Z85" s="6"/>
+      <c r="Z85" s="5"/>
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
@@ -4764,7 +4728,7 @@
       <c r="AP85" s="4"/>
       <c r="AQ85" s="4"/>
     </row>
-    <row r="86" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4790,7 +4754,7 @@
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
-      <c r="Z86" s="6"/>
+      <c r="Z86" s="5"/>
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
@@ -4809,7 +4773,7 @@
       <c r="AP86" s="4"/>
       <c r="AQ86" s="4"/>
     </row>
-    <row r="87" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4835,7 +4799,7 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
-      <c r="Z87" s="6"/>
+      <c r="Z87" s="5"/>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
@@ -4854,7 +4818,7 @@
       <c r="AP87" s="4"/>
       <c r="AQ87" s="4"/>
     </row>
-    <row r="88" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4880,7 +4844,7 @@
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
-      <c r="Z88" s="6"/>
+      <c r="Z88" s="5"/>
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
@@ -4899,7 +4863,7 @@
       <c r="AP88" s="4"/>
       <c r="AQ88" s="4"/>
     </row>
-    <row r="89" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4925,7 +4889,7 @@
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
-      <c r="Z89" s="6"/>
+      <c r="Z89" s="5"/>
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
@@ -4944,7 +4908,7 @@
       <c r="AP89" s="4"/>
       <c r="AQ89" s="4"/>
     </row>
-    <row r="90" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4970,7 +4934,7 @@
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
-      <c r="Z90" s="6"/>
+      <c r="Z90" s="5"/>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
@@ -4989,7 +4953,7 @@
       <c r="AP90" s="4"/>
       <c r="AQ90" s="4"/>
     </row>
-    <row r="91" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5015,7 +4979,7 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
-      <c r="Z91" s="6"/>
+      <c r="Z91" s="5"/>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
@@ -5034,7 +4998,7 @@
       <c r="AP91" s="4"/>
       <c r="AQ91" s="4"/>
     </row>
-    <row r="92" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5060,7 +5024,7 @@
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
-      <c r="Z92" s="6"/>
+      <c r="Z92" s="5"/>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
@@ -5079,7 +5043,7 @@
       <c r="AP92" s="4"/>
       <c r="AQ92" s="4"/>
     </row>
-    <row r="93" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5105,7 +5069,7 @@
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
-      <c r="Z93" s="6"/>
+      <c r="Z93" s="5"/>
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
@@ -5124,7 +5088,7 @@
       <c r="AP93" s="4"/>
       <c r="AQ93" s="4"/>
     </row>
-    <row r="94" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5150,7 +5114,7 @@
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
-      <c r="Z94" s="6"/>
+      <c r="Z94" s="5"/>
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
@@ -5169,7 +5133,7 @@
       <c r="AP94" s="4"/>
       <c r="AQ94" s="4"/>
     </row>
-    <row r="95" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5195,7 +5159,7 @@
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
-      <c r="Z95" s="6"/>
+      <c r="Z95" s="5"/>
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
@@ -5214,14 +5178,14 @@
       <c r="AP95" s="4"/>
       <c r="AQ95" s="4"/>
     </row>
-    <row r="96" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -5240,7 +5204,7 @@
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
-      <c r="Z96" s="6"/>
+      <c r="Z96" s="5"/>
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
@@ -5259,7 +5223,7 @@
       <c r="AP96" s="4"/>
       <c r="AQ96" s="4"/>
     </row>
-    <row r="97" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -5285,7 +5249,7 @@
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
-      <c r="Z97" s="6"/>
+      <c r="Z97" s="5"/>
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
       <c r="AC97" s="4"/>
@@ -5304,14 +5268,14 @@
       <c r="AP97" s="4"/>
       <c r="AQ97" s="4"/>
     </row>
-    <row r="98" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="9"/>
+      <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -5330,7 +5294,7 @@
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
-      <c r="Z98" s="6"/>
+      <c r="Z98" s="5"/>
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
@@ -5349,14 +5313,14 @@
       <c r="AP98" s="4"/>
       <c r="AQ98" s="4"/>
     </row>
-    <row r="99" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -5375,7 +5339,7 @@
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
-      <c r="Z99" s="6"/>
+      <c r="Z99" s="5"/>
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
@@ -5394,14 +5358,14 @@
       <c r="AP99" s="4"/>
       <c r="AQ99" s="4"/>
     </row>
-    <row r="100" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="9"/>
+      <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -5420,7 +5384,7 @@
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
-      <c r="Z100" s="6"/>
+      <c r="Z100" s="5"/>
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
       <c r="AC100" s="4"/>
@@ -5439,7 +5403,7 @@
       <c r="AP100" s="4"/>
       <c r="AQ100" s="4"/>
     </row>
-    <row r="101" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5465,7 +5429,7 @@
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
-      <c r="Z101" s="6"/>
+      <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
@@ -5484,33 +5448,33 @@
       <c r="AP101" s="4"/>
       <c r="AQ101" s="4"/>
     </row>
-    <row r="102" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
+    <row r="102" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+      <c r="T102" s="11"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="11"/>
+      <c r="Z102" s="5"/>
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
       <c r="AC102" s="4"/>
@@ -5529,7 +5493,7 @@
       <c r="AP102" s="4"/>
       <c r="AQ102" s="4"/>
     </row>
-    <row r="103" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -5553,9 +5517,9 @@
       <c r="U103" s="11"/>
       <c r="V103" s="11"/>
       <c r="W103" s="11"/>
-      <c r="X103" s="6"/>
+      <c r="X103" s="5"/>
       <c r="Y103" s="11"/>
-      <c r="Z103" s="6"/>
+      <c r="Z103" s="5"/>
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
       <c r="AC103" s="4"/>
@@ -5574,33 +5538,33 @@
       <c r="AP103" s="4"/>
       <c r="AQ103" s="4"/>
     </row>
-    <row r="104" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="11"/>
-      <c r="X104" s="6"/>
-      <c r="Y104" s="11"/>
-      <c r="Z104" s="6"/>
+    <row r="104" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="8"/>
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
@@ -5619,7 +5583,7 @@
       <c r="AP104" s="4"/>
       <c r="AQ104" s="4"/>
     </row>
-    <row r="105" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -5643,9 +5607,9 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
-      <c r="X105" s="8"/>
+      <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
-      <c r="Z105" s="8"/>
+      <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
       <c r="AC105" s="4"/>
@@ -5664,7 +5628,7 @@
       <c r="AP105" s="4"/>
       <c r="AQ105" s="4"/>
     </row>
-    <row r="106" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5690,7 +5654,7 @@
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
-      <c r="Z106" s="4"/>
+      <c r="Z106" s="5"/>
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
@@ -5709,7 +5673,7 @@
       <c r="AP106" s="4"/>
       <c r="AQ106" s="4"/>
     </row>
-    <row r="107" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5735,7 +5699,7 @@
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
-      <c r="Z107" s="6"/>
+      <c r="Z107" s="5"/>
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
@@ -5754,7 +5718,7 @@
       <c r="AP107" s="4"/>
       <c r="AQ107" s="4"/>
     </row>
-    <row r="108" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5780,7 +5744,7 @@
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
-      <c r="Z108" s="6"/>
+      <c r="Z108" s="5"/>
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
@@ -5799,7 +5763,7 @@
       <c r="AP108" s="4"/>
       <c r="AQ108" s="4"/>
     </row>
-    <row r="109" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5825,7 +5789,7 @@
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
-      <c r="Z109" s="6"/>
+      <c r="Z109" s="5"/>
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
@@ -5844,7 +5808,7 @@
       <c r="AP109" s="4"/>
       <c r="AQ109" s="4"/>
     </row>
-    <row r="110" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -5870,7 +5834,7 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
-      <c r="Z110" s="6"/>
+      <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
       <c r="AC110" s="4"/>
@@ -5889,7 +5853,7 @@
       <c r="AP110" s="4"/>
       <c r="AQ110" s="4"/>
     </row>
-    <row r="111" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="6" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5915,7 +5879,7 @@
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
-      <c r="Z111" s="4"/>
+      <c r="Z111" s="5"/>
       <c r="AA111" s="4"/>
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
@@ -5934,7 +5898,7 @@
       <c r="AP111" s="4"/>
       <c r="AQ111" s="4"/>
     </row>
-    <row r="112" s="5" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -5960,7 +5924,7 @@
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
-      <c r="Z112" s="6"/>
+      <c r="Z112" s="5"/>
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
@@ -5979,7 +5943,7 @@
       <c r="AP112" s="4"/>
       <c r="AQ112" s="4"/>
     </row>
-    <row r="113" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="6" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6003,9 +5967,9 @@
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
+      <c r="X113" s="5"/>
       <c r="Y113" s="4"/>
-      <c r="Z113" s="6"/>
+      <c r="Z113" s="5"/>
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
@@ -6024,7 +5988,7 @@
       <c r="AP113" s="4"/>
       <c r="AQ113" s="4"/>
     </row>
-    <row r="114" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" s="6" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6048,9 +6012,9 @@
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
-      <c r="X114" s="6"/>
+      <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
-      <c r="Z114" s="6"/>
+      <c r="Z114" s="5"/>
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
@@ -6069,7 +6033,7 @@
       <c r="AP114" s="4"/>
       <c r="AQ114" s="4"/>
     </row>
-    <row r="115" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6095,7 +6059,7 @@
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
-      <c r="Z115" s="6"/>
+      <c r="Z115" s="5"/>
       <c r="AA115" s="4"/>
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
@@ -6114,7 +6078,7 @@
       <c r="AP115" s="4"/>
       <c r="AQ115" s="4"/>
     </row>
-    <row r="116" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -6140,7 +6104,7 @@
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
-      <c r="Z116" s="6"/>
+      <c r="Z116" s="5"/>
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
@@ -6159,7 +6123,7 @@
       <c r="AP116" s="4"/>
       <c r="AQ116" s="4"/>
     </row>
-    <row r="117" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6185,7 +6149,7 @@
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
-      <c r="Z117" s="6"/>
+      <c r="Z117" s="5"/>
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
@@ -6204,7 +6168,7 @@
       <c r="AP117" s="4"/>
       <c r="AQ117" s="4"/>
     </row>
-    <row r="118" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6230,7 +6194,7 @@
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
-      <c r="Z118" s="6"/>
+      <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
@@ -6249,8 +6213,8 @@
       <c r="AP118" s="4"/>
       <c r="AQ118" s="4"/>
     </row>
-    <row r="119" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4"/>
+    <row r="119" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -6294,8 +6258,8 @@
       <c r="AP119" s="4"/>
       <c r="AQ119" s="4"/>
     </row>
-    <row r="120" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10"/>
+    <row r="120" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -6318,7 +6282,7 @@
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
+      <c r="X120" s="5"/>
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
@@ -6339,7 +6303,7 @@
       <c r="AP120" s="4"/>
       <c r="AQ120" s="4"/>
     </row>
-    <row r="121" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6363,7 +6327,7 @@
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
-      <c r="X121" s="6"/>
+      <c r="X121" s="5"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
@@ -6384,13 +6348,13 @@
       <c r="AP121" s="4"/>
       <c r="AQ121" s="4"/>
     </row>
-    <row r="122" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
+      <c r="F122" s="9"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -6408,7 +6372,7 @@
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
-      <c r="X122" s="6"/>
+      <c r="X122" s="5"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
@@ -6429,7 +6393,7 @@
       <c r="AP122" s="4"/>
       <c r="AQ122" s="4"/>
     </row>
-    <row r="123" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6453,7 +6417,7 @@
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
-      <c r="X123" s="6"/>
+      <c r="X123" s="5"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
@@ -6474,7 +6438,7 @@
       <c r="AP123" s="4"/>
       <c r="AQ123" s="4"/>
     </row>
-    <row r="124" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6498,7 +6462,7 @@
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
-      <c r="X124" s="6"/>
+      <c r="X124" s="5"/>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
@@ -6519,13 +6483,13 @@
       <c r="AP124" s="4"/>
       <c r="AQ124" s="4"/>
     </row>
-    <row r="125" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="9"/>
+      <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
@@ -6543,7 +6507,7 @@
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
-      <c r="X125" s="6"/>
+      <c r="X125" s="5"/>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
@@ -6564,7 +6528,7 @@
       <c r="AP125" s="4"/>
       <c r="AQ125" s="4"/>
     </row>
-    <row r="126" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -6588,7 +6552,7 @@
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
-      <c r="X126" s="6"/>
+      <c r="X126" s="5"/>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
@@ -6609,7 +6573,7 @@
       <c r="AP126" s="4"/>
       <c r="AQ126" s="4"/>
     </row>
-    <row r="127" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -6633,7 +6597,7 @@
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
-      <c r="X127" s="6"/>
+      <c r="X127" s="5"/>
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
       <c r="AA127" s="4"/>
@@ -6654,7 +6618,7 @@
       <c r="AP127" s="4"/>
       <c r="AQ127" s="4"/>
     </row>
-    <row r="128" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -6678,7 +6642,7 @@
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
-      <c r="X128" s="6"/>
+      <c r="X128" s="5"/>
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
       <c r="AA128" s="4"/>
@@ -6699,7 +6663,7 @@
       <c r="AP128" s="4"/>
       <c r="AQ128" s="4"/>
     </row>
-    <row r="129" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -6723,7 +6687,7 @@
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
-      <c r="X129" s="6"/>
+      <c r="X129" s="5"/>
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
@@ -6744,7 +6708,7 @@
       <c r="AP129" s="4"/>
       <c r="AQ129" s="4"/>
     </row>
-    <row r="130" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6768,7 +6732,7 @@
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
-      <c r="X130" s="6"/>
+      <c r="X130" s="5"/>
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
       <c r="AA130" s="4"/>
@@ -6789,7 +6753,7 @@
       <c r="AP130" s="4"/>
       <c r="AQ130" s="4"/>
     </row>
-    <row r="131" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6813,7 +6777,7 @@
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
-      <c r="X131" s="6"/>
+      <c r="X131" s="5"/>
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
@@ -6834,7 +6798,7 @@
       <c r="AP131" s="4"/>
       <c r="AQ131" s="4"/>
     </row>
-    <row r="132" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -6858,7 +6822,7 @@
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
-      <c r="X132" s="6"/>
+      <c r="X132" s="5"/>
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
@@ -6879,7 +6843,7 @@
       <c r="AP132" s="4"/>
       <c r="AQ132" s="4"/>
     </row>
-    <row r="133" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -6903,7 +6867,7 @@
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
-      <c r="X133" s="6"/>
+      <c r="X133" s="5"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
@@ -6924,7 +6888,7 @@
       <c r="AP133" s="4"/>
       <c r="AQ133" s="4"/>
     </row>
-    <row r="134" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6948,7 +6912,7 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
-      <c r="X134" s="6"/>
+      <c r="X134" s="5"/>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
@@ -6969,7 +6933,7 @@
       <c r="AP134" s="4"/>
       <c r="AQ134" s="4"/>
     </row>
-    <row r="135" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6993,7 +6957,7 @@
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
-      <c r="X135" s="6"/>
+      <c r="X135" s="5"/>
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
@@ -7014,7 +6978,7 @@
       <c r="AP135" s="4"/>
       <c r="AQ135" s="4"/>
     </row>
-    <row r="136" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -7038,7 +7002,7 @@
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
-      <c r="X136" s="6"/>
+      <c r="X136" s="5"/>
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
       <c r="AA136" s="4"/>
@@ -7059,7 +7023,7 @@
       <c r="AP136" s="4"/>
       <c r="AQ136" s="4"/>
     </row>
-    <row r="137" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -7083,7 +7047,7 @@
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
-      <c r="X137" s="6"/>
+      <c r="X137" s="5"/>
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
       <c r="AA137" s="4"/>
@@ -7104,7 +7068,7 @@
       <c r="AP137" s="4"/>
       <c r="AQ137" s="4"/>
     </row>
-    <row r="138" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -7128,7 +7092,7 @@
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
-      <c r="X138" s="6"/>
+      <c r="X138" s="5"/>
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
       <c r="AA138" s="4"/>
@@ -7149,7 +7113,7 @@
       <c r="AP138" s="4"/>
       <c r="AQ138" s="4"/>
     </row>
-    <row r="139" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7173,7 +7137,7 @@
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
-      <c r="X139" s="6"/>
+      <c r="X139" s="5"/>
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
@@ -7194,7 +7158,7 @@
       <c r="AP139" s="4"/>
       <c r="AQ139" s="4"/>
     </row>
-    <row r="140" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -7218,7 +7182,7 @@
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
-      <c r="X140" s="6"/>
+      <c r="X140" s="5"/>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
@@ -7239,7 +7203,7 @@
       <c r="AP140" s="4"/>
       <c r="AQ140" s="4"/>
     </row>
-    <row r="141" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -7263,7 +7227,7 @@
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
-      <c r="X141" s="6"/>
+      <c r="X141" s="5"/>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
       <c r="AA141" s="4"/>
@@ -7284,7 +7248,7 @@
       <c r="AP141" s="4"/>
       <c r="AQ141" s="4"/>
     </row>
-    <row r="142" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -7308,7 +7272,7 @@
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
-      <c r="X142" s="6"/>
+      <c r="X142" s="5"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
@@ -7329,7 +7293,7 @@
       <c r="AP142" s="4"/>
       <c r="AQ142" s="4"/>
     </row>
-    <row r="143" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -7351,9 +7315,9 @@
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
+      <c r="V143" s="8"/>
       <c r="W143" s="4"/>
-      <c r="X143" s="6"/>
+      <c r="X143" s="5"/>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
@@ -7374,7 +7338,7 @@
       <c r="AP143" s="4"/>
       <c r="AQ143" s="4"/>
     </row>
-    <row r="144" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -7396,9 +7360,9 @@
       <c r="S144" s="4"/>
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
-      <c r="V144" s="8"/>
+      <c r="V144" s="4"/>
       <c r="W144" s="4"/>
-      <c r="X144" s="6"/>
+      <c r="X144" s="5"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
@@ -7419,7 +7383,7 @@
       <c r="AP144" s="4"/>
       <c r="AQ144" s="4"/>
     </row>
-    <row r="145" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7441,9 +7405,9 @@
       <c r="S145" s="4"/>
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
+      <c r="V145" s="8"/>
       <c r="W145" s="4"/>
-      <c r="X145" s="6"/>
+      <c r="X145" s="5"/>
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
@@ -7464,14 +7428,12 @@
       <c r="AP145" s="4"/>
       <c r="AQ145" s="4"/>
     </row>
-    <row r="146" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -7488,7 +7450,7 @@
       <c r="U146" s="4"/>
       <c r="V146" s="8"/>
       <c r="W146" s="4"/>
-      <c r="X146" s="6"/>
+      <c r="X146" s="5"/>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
@@ -7509,12 +7471,14 @@
       <c r="AP146" s="4"/>
       <c r="AQ146" s="4"/>
     </row>
-    <row r="147" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -7529,9 +7493,9 @@
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
-      <c r="V147" s="8"/>
+      <c r="V147" s="4"/>
       <c r="W147" s="4"/>
-      <c r="X147" s="6"/>
+      <c r="X147" s="5"/>
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
       <c r="AA147" s="4"/>
@@ -7552,7 +7516,7 @@
       <c r="AP147" s="4"/>
       <c r="AQ147" s="4"/>
     </row>
-    <row r="148" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7574,9 +7538,9 @@
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
+      <c r="V148" s="8"/>
       <c r="W148" s="4"/>
-      <c r="X148" s="6"/>
+      <c r="X148" s="5"/>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
@@ -7597,7 +7561,7 @@
       <c r="AP148" s="4"/>
       <c r="AQ148" s="4"/>
     </row>
-    <row r="149" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -7621,7 +7585,7 @@
       <c r="U149" s="4"/>
       <c r="V149" s="8"/>
       <c r="W149" s="4"/>
-      <c r="X149" s="6"/>
+      <c r="X149" s="5"/>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
@@ -7642,7 +7606,7 @@
       <c r="AP149" s="4"/>
       <c r="AQ149" s="4"/>
     </row>
-    <row r="150" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -7666,7 +7630,7 @@
       <c r="U150" s="4"/>
       <c r="V150" s="8"/>
       <c r="W150" s="4"/>
-      <c r="X150" s="6"/>
+      <c r="X150" s="5"/>
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
       <c r="AA150" s="4"/>
@@ -7687,7 +7651,7 @@
       <c r="AP150" s="4"/>
       <c r="AQ150" s="4"/>
     </row>
-    <row r="151" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -7711,7 +7675,7 @@
       <c r="U151" s="4"/>
       <c r="V151" s="8"/>
       <c r="W151" s="4"/>
-      <c r="X151" s="6"/>
+      <c r="X151" s="5"/>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
@@ -7732,7 +7696,7 @@
       <c r="AP151" s="4"/>
       <c r="AQ151" s="4"/>
     </row>
-    <row r="152" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -7754,9 +7718,9 @@
       <c r="S152" s="4"/>
       <c r="T152" s="4"/>
       <c r="U152" s="4"/>
-      <c r="V152" s="8"/>
+      <c r="V152" s="4"/>
       <c r="W152" s="4"/>
-      <c r="X152" s="6"/>
+      <c r="X152" s="5"/>
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
@@ -7777,7 +7741,7 @@
       <c r="AP152" s="4"/>
       <c r="AQ152" s="4"/>
     </row>
-    <row r="153" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -7801,7 +7765,7 @@
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
-      <c r="X153" s="6"/>
+      <c r="X153" s="5"/>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
@@ -7822,13 +7786,13 @@
       <c r="AP153" s="4"/>
       <c r="AQ153" s="4"/>
     </row>
-    <row r="154" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
+      <c r="F154" s="9"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
@@ -7846,7 +7810,7 @@
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
-      <c r="X154" s="6"/>
+      <c r="X154" s="5"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
@@ -7867,13 +7831,13 @@
       <c r="AP154" s="4"/>
       <c r="AQ154" s="4"/>
     </row>
-    <row r="155" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="9"/>
+      <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -7891,7 +7855,7 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
-      <c r="X155" s="6"/>
+      <c r="X155" s="5"/>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
@@ -7912,7 +7876,7 @@
       <c r="AP155" s="4"/>
       <c r="AQ155" s="4"/>
     </row>
-    <row r="156" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -7936,7 +7900,7 @@
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
-      <c r="X156" s="6"/>
+      <c r="X156" s="5"/>
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
@@ -7957,7 +7921,7 @@
       <c r="AP156" s="4"/>
       <c r="AQ156" s="4"/>
     </row>
-    <row r="157" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -7981,7 +7945,7 @@
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
-      <c r="X157" s="6"/>
+      <c r="X157" s="5"/>
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
       <c r="AA157" s="4"/>
@@ -8002,7 +7966,7 @@
       <c r="AP157" s="4"/>
       <c r="AQ157" s="4"/>
     </row>
-    <row r="158" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -8024,9 +7988,9 @@
       <c r="S158" s="4"/>
       <c r="T158" s="4"/>
       <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
+      <c r="V158" s="8"/>
       <c r="W158" s="4"/>
-      <c r="X158" s="6"/>
+      <c r="X158" s="5"/>
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
       <c r="AA158" s="4"/>
@@ -8047,7 +8011,7 @@
       <c r="AP158" s="4"/>
       <c r="AQ158" s="4"/>
     </row>
-    <row r="159" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -8071,7 +8035,7 @@
       <c r="U159" s="4"/>
       <c r="V159" s="8"/>
       <c r="W159" s="4"/>
-      <c r="X159" s="6"/>
+      <c r="X159" s="5"/>
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
@@ -8092,7 +8056,7 @@
       <c r="AP159" s="4"/>
       <c r="AQ159" s="4"/>
     </row>
-    <row r="160" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -8114,9 +8078,9 @@
       <c r="S160" s="4"/>
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
-      <c r="V160" s="8"/>
+      <c r="V160" s="4"/>
       <c r="W160" s="4"/>
-      <c r="X160" s="6"/>
+      <c r="X160" s="5"/>
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
@@ -8137,7 +8101,7 @@
       <c r="AP160" s="4"/>
       <c r="AQ160" s="4"/>
     </row>
-    <row r="161" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -8161,7 +8125,7 @@
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
-      <c r="X161" s="6"/>
+      <c r="X161" s="5"/>
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
@@ -8182,7 +8146,7 @@
       <c r="AP161" s="4"/>
       <c r="AQ161" s="4"/>
     </row>
-    <row r="162" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -8206,7 +8170,7 @@
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
-      <c r="X162" s="6"/>
+      <c r="X162" s="5"/>
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
@@ -8227,7 +8191,7 @@
       <c r="AP162" s="4"/>
       <c r="AQ162" s="4"/>
     </row>
-    <row r="163" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -8251,7 +8215,7 @@
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
-      <c r="X163" s="6"/>
+      <c r="X163" s="5"/>
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
@@ -8272,13 +8236,13 @@
       <c r="AP163" s="4"/>
       <c r="AQ163" s="4"/>
     </row>
-    <row r="164" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
+      <c r="F164" s="9"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
@@ -8296,7 +8260,7 @@
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
-      <c r="X164" s="6"/>
+      <c r="X164" s="5"/>
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
@@ -8317,7 +8281,7 @@
       <c r="AP164" s="4"/>
       <c r="AQ164" s="4"/>
     </row>
-    <row r="165" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -8341,7 +8305,7 @@
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
-      <c r="X165" s="6"/>
+      <c r="X165" s="5"/>
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
@@ -8362,13 +8326,13 @@
       <c r="AP165" s="4"/>
       <c r="AQ165" s="4"/>
     </row>
-    <row r="166" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
-      <c r="F166" s="9"/>
+      <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -8384,9 +8348,9 @@
       <c r="S166" s="4"/>
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
+      <c r="V166" s="8"/>
       <c r="W166" s="4"/>
-      <c r="X166" s="6"/>
+      <c r="X166" s="5"/>
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
@@ -8407,7 +8371,7 @@
       <c r="AP166" s="4"/>
       <c r="AQ166" s="4"/>
     </row>
-    <row r="167" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -8429,9 +8393,9 @@
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
-      <c r="V167" s="8"/>
+      <c r="V167" s="4"/>
       <c r="W167" s="4"/>
-      <c r="X167" s="6"/>
+      <c r="X167" s="5"/>
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
@@ -8452,7 +8416,7 @@
       <c r="AP167" s="4"/>
       <c r="AQ167" s="4"/>
     </row>
-    <row r="168" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -8476,7 +8440,7 @@
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
-      <c r="X168" s="6"/>
+      <c r="X168" s="5"/>
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
@@ -8497,7 +8461,7 @@
       <c r="AP168" s="4"/>
       <c r="AQ168" s="4"/>
     </row>
-    <row r="169" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -8521,7 +8485,7 @@
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
-      <c r="X169" s="6"/>
+      <c r="X169" s="5"/>
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
@@ -8542,7 +8506,7 @@
       <c r="AP169" s="4"/>
       <c r="AQ169" s="4"/>
     </row>
-    <row r="170" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -8566,7 +8530,7 @@
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
-      <c r="X170" s="6"/>
+      <c r="X170" s="5"/>
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
@@ -8587,7 +8551,7 @@
       <c r="AP170" s="4"/>
       <c r="AQ170" s="4"/>
     </row>
-    <row r="171" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -8611,7 +8575,7 @@
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
-      <c r="X171" s="6"/>
+      <c r="X171" s="5"/>
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
@@ -8632,97 +8596,84 @@
       <c r="AP171" s="4"/>
       <c r="AQ171" s="4"/>
     </row>
-    <row r="172" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
-      <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
-      <c r="Q172" s="4"/>
-      <c r="R172" s="4"/>
-      <c r="S172" s="4"/>
-      <c r="T172" s="4"/>
-      <c r="U172" s="4"/>
-      <c r="V172" s="4"/>
-      <c r="W172" s="4"/>
-      <c r="X172" s="6"/>
-      <c r="Y172" s="4"/>
-      <c r="Z172" s="4"/>
-      <c r="AA172" s="4"/>
-      <c r="AB172" s="4"/>
-      <c r="AC172" s="4"/>
-      <c r="AD172" s="4"/>
-      <c r="AE172" s="4"/>
-      <c r="AF172" s="4"/>
-      <c r="AG172" s="4"/>
-      <c r="AH172" s="4"/>
-      <c r="AI172" s="4"/>
-      <c r="AJ172" s="4"/>
-      <c r="AK172" s="4"/>
-      <c r="AL172" s="4"/>
-      <c r="AM172" s="4"/>
-      <c r="AN172" s="4"/>
-      <c r="AO172" s="4"/>
-      <c r="AP172" s="4"/>
-      <c r="AQ172" s="4"/>
-    </row>
-    <row r="173" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
+    <row r="172" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="12"/>
+      <c r="T172" s="12"/>
+      <c r="U172" s="12"/>
+      <c r="V172" s="12"/>
+      <c r="W172" s="12"/>
+      <c r="X172" s="12"/>
+      <c r="Y172" s="12"/>
+      <c r="Z172" s="12"/>
+      <c r="AA172" s="12"/>
+      <c r="AB172" s="12"/>
+      <c r="AC172" s="12"/>
+      <c r="AD172" s="12"/>
+      <c r="AE172" s="12"/>
+      <c r="AF172" s="12"/>
+      <c r="AG172" s="12"/>
+      <c r="AH172" s="12"/>
+      <c r="AI172" s="12"/>
+      <c r="AJ172" s="12"/>
+      <c r="AK172" s="12"/>
+      <c r="AL172" s="12"/>
+      <c r="AM172" s="12"/>
+      <c r="AN172" s="12"/>
+      <c r="AO172" s="12"/>
+      <c r="AP172" s="12"/>
+      <c r="AQ172" s="12"/>
+    </row>
+    <row r="173" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="14"/>
       <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
-      <c r="K173" s="12"/>
-      <c r="L173" s="12"/>
-      <c r="M173" s="12"/>
-      <c r="N173" s="12"/>
-      <c r="O173" s="12"/>
-      <c r="P173" s="12"/>
-      <c r="Q173" s="12"/>
-      <c r="R173" s="12"/>
-      <c r="S173" s="12"/>
-      <c r="T173" s="12"/>
-      <c r="U173" s="12"/>
-      <c r="V173" s="12"/>
-      <c r="W173" s="12"/>
-      <c r="X173" s="12"/>
-      <c r="Y173" s="12"/>
-      <c r="Z173" s="12"/>
-      <c r="AA173" s="12"/>
-      <c r="AB173" s="12"/>
-      <c r="AC173" s="12"/>
-      <c r="AD173" s="12"/>
-      <c r="AE173" s="12"/>
-      <c r="AF173" s="12"/>
-      <c r="AG173" s="12"/>
-      <c r="AH173" s="12"/>
-      <c r="AI173" s="12"/>
-      <c r="AJ173" s="12"/>
-      <c r="AK173" s="12"/>
-      <c r="AL173" s="12"/>
-      <c r="AM173" s="12"/>
-      <c r="AN173" s="12"/>
-      <c r="AO173" s="12"/>
-      <c r="AP173" s="12"/>
-      <c r="AQ173" s="12"/>
-    </row>
-    <row r="174" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
+      <c r="L173" s="13"/>
+      <c r="M173" s="13"/>
+      <c r="N173" s="13"/>
+      <c r="O173" s="13"/>
+      <c r="P173" s="13"/>
+      <c r="Q173" s="13"/>
+      <c r="R173" s="13"/>
+      <c r="S173" s="13"/>
+      <c r="T173" s="13"/>
+      <c r="U173" s="13"/>
+      <c r="V173" s="13"/>
+      <c r="W173" s="13"/>
+      <c r="X173" s="13"/>
+      <c r="Y173" s="13"/>
+      <c r="Z173" s="13"/>
+      <c r="AA173" s="13"/>
+      <c r="AB173" s="13"/>
+      <c r="AC173" s="13"/>
+      <c r="AD173" s="13"/>
+    </row>
+    <row r="174" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -8754,7 +8705,7 @@
       <c r="AC174" s="13"/>
       <c r="AD174" s="13"/>
     </row>
-    <row r="175" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -8786,7 +8737,7 @@
       <c r="AC175" s="13"/>
       <c r="AD175" s="13"/>
     </row>
-    <row r="176" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -8818,7 +8769,7 @@
       <c r="AC176" s="13"/>
       <c r="AD176" s="13"/>
     </row>
-    <row r="177" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -8850,7 +8801,7 @@
       <c r="AC177" s="13"/>
       <c r="AD177" s="13"/>
     </row>
-    <row r="178" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -8882,7 +8833,7 @@
       <c r="AC178" s="13"/>
       <c r="AD178" s="13"/>
     </row>
-    <row r="179" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -8914,7 +8865,7 @@
       <c r="AC179" s="13"/>
       <c r="AD179" s="13"/>
     </row>
-    <row r="180" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -8946,7 +8897,7 @@
       <c r="AC180" s="13"/>
       <c r="AD180" s="13"/>
     </row>
-    <row r="181" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -8978,7 +8929,7 @@
       <c r="AC181" s="13"/>
       <c r="AD181" s="13"/>
     </row>
-    <row r="182" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" s="6" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -9010,37 +8961,37 @@
       <c r="AC182" s="13"/>
       <c r="AD182" s="13"/>
     </row>
-    <row r="183" s="5" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="13"/>
-      <c r="B183" s="13"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="13"/>
-      <c r="K183" s="13"/>
-      <c r="L183" s="13"/>
-      <c r="M183" s="13"/>
-      <c r="N183" s="13"/>
-      <c r="O183" s="13"/>
-      <c r="P183" s="13"/>
-      <c r="Q183" s="13"/>
-      <c r="R183" s="13"/>
-      <c r="S183" s="13"/>
-      <c r="T183" s="13"/>
-      <c r="U183" s="13"/>
-      <c r="V183" s="13"/>
-      <c r="W183" s="13"/>
-      <c r="X183" s="13"/>
-      <c r="Y183" s="13"/>
-      <c r="Z183" s="13"/>
-      <c r="AA183" s="13"/>
-      <c r="AB183" s="13"/>
-      <c r="AC183" s="13"/>
-      <c r="AD183" s="13"/>
+    <row r="183" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="15"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="15"/>
+      <c r="M183" s="15"/>
+      <c r="N183" s="15"/>
+      <c r="O183" s="15"/>
+      <c r="P183" s="15"/>
+      <c r="Q183" s="15"/>
+      <c r="R183" s="15"/>
+      <c r="S183" s="15"/>
+      <c r="T183" s="15"/>
+      <c r="U183" s="15"/>
+      <c r="V183" s="15"/>
+      <c r="W183" s="15"/>
+      <c r="X183" s="15"/>
+      <c r="Y183" s="15"/>
+      <c r="Z183" s="15"/>
+      <c r="AA183" s="15"/>
+      <c r="AB183" s="15"/>
+      <c r="AC183" s="15"/>
+      <c r="AD183" s="15"/>
     </row>
     <row r="184" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="15"/>
@@ -35026,63 +34977,25 @@
       <c r="AC995" s="15"/>
       <c r="AD995" s="15"/>
     </row>
-    <row r="996" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="15"/>
-      <c r="B996" s="15"/>
-      <c r="C996" s="15"/>
-      <c r="D996" s="15"/>
-      <c r="E996" s="15"/>
-      <c r="F996" s="15"/>
-      <c r="G996" s="16"/>
-      <c r="H996" s="16"/>
-      <c r="I996" s="17"/>
-      <c r="J996" s="15"/>
-      <c r="K996" s="15"/>
-      <c r="L996" s="15"/>
-      <c r="M996" s="15"/>
-      <c r="N996" s="15"/>
-      <c r="O996" s="15"/>
-      <c r="P996" s="15"/>
-      <c r="Q996" s="15"/>
-      <c r="R996" s="15"/>
-      <c r="S996" s="15"/>
-      <c r="T996" s="15"/>
-      <c r="U996" s="15"/>
-      <c r="V996" s="15"/>
-      <c r="W996" s="15"/>
-      <c r="X996" s="15"/>
-      <c r="Y996" s="15"/>
-      <c r="Z996" s="15"/>
-      <c r="AA996" s="15"/>
-      <c r="AB996" s="15"/>
-      <c r="AC996" s="15"/>
-      <c r="AD996" s="15"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:H79"/>
     <mergeCell ref="F80:H80"/>
-    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="X96:Y96"/>
     <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="F98:H98"/>
     <mergeCell ref="X98:Y98"/>
-    <mergeCell ref="F99:H99"/>
     <mergeCell ref="X99:Y99"/>
-    <mergeCell ref="X100:Y100"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="J137:K137"/>
     <mergeCell ref="J138:K138"/>
-    <mergeCell ref="J139:K139"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="O164:P164"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="O163:P163"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="Z2" r:id="rId1" display="https://www.iccr-cancer.org/datasets/published-datasets/thorax/heart/"/>
-    <hyperlink ref="Z3" r:id="rId2" display="https://pmc.ncbi.nlm.nih.gov/articles/PMC4201046/"/>
-    <hyperlink ref="Z4" r:id="rId3" display="https://www.cardiacatlas.org/sunnybrook-cardiac-data/"/>
-    <hyperlink ref="Z5" r:id="rId4" display="https://www.nature.com/articles/s41597-024-03525-4"/>
-    <hyperlink ref="Z6" r:id="rId5" display="https://www.cancerimagingarchive.net/collection/soft-tissue-sarcoma/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/docs/DataSheet RD.xlsx
+++ b/docs/DataSheet RD.xlsx
@@ -712,7 +712,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
